--- a/pearson_tables/t2m_netherlands-3-10.xlsx
+++ b/pearson_tables/t2m_netherlands-3-10.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6905887030204021</v>
+        <v>-0.7252663449146157</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6961675381434205</v>
+        <v>-0.7264947710836137</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5942827540302957</v>
+        <v>-0.6438116996505815</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7946363671418316</v>
+        <v>0.7857583742924954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7622546218872915</v>
+        <v>0.6945631837384654</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5616886550313146</v>
+        <v>-0.5848874524283162</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7930506284309847</v>
+        <v>0.7734892888043006</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6771750185875962</v>
+        <v>-0.6814466276472175</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6495355890379432</v>
+        <v>0.6447219063213621</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6835048153060821</v>
+        <v>-0.6882343950236557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6566469506185153</v>
+        <v>0.6013359868225709</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4601655348939058</v>
+        <v>-0.492900360568737</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8351640894846882</v>
+        <v>-0.8232155214576399</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7281074540144462</v>
+        <v>-0.7364419089536182</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5703703833230851</v>
+        <v>-0.5691473661445998</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6364245603005606</v>
+        <v>-0.7997800534804209</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5472262867442715</v>
+        <v>-0.4000529195126185</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6588498041480726</v>
+        <v>0.7873902526128235</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8523660937266735</v>
+        <v>-0.8252920169842061</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.7986735525435811</v>
+        <v>-0.8089826795689997</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6877159914278679</v>
+        <v>0.688415227476193</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7726663419845259</v>
+        <v>0.7795322195061662</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7288590879700112</v>
+        <v>0.7280440006258964</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5997309668899996</v>
+        <v>-0.6123770258533671</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-3-10.xlsx
+++ b/pearson_tables/t2m_netherlands-3-10.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7252663449146157</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7264947710836137</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6438116996505815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7857583742924954</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6945631837384654</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5848874524283162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7734892888043006</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6814466276472175</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6447219063213621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6882343950236557</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6013359868225709</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.492900360568737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8232155214576399</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7364419089536182</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5691473661445998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7997800534804209</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4000529195126185</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7873902526128235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8252920169842061</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.8089826795689997</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.688415227476193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7795322195061662</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7280440006258964</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6123770258533671</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
